--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="I18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="I19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K19" s="2" t="b">
@@ -1473,11 +1473,11 @@
         </is>
       </c>
       <c r="I20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K20" s="2" t="b">
@@ -1525,11 +1525,11 @@
         </is>
       </c>
       <c r="I21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K21" s="2" t="b">
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,81 +10977,81 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,57 +12717,57 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -23122,470 +23122,470 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" t="n">
         <v>40</v>
       </c>
-      <c r="B437" s="2" t="inlineStr">
+      <c r="B437" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" s="2" t="inlineStr">
+      <c r="C437" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" s="2" t="n">
+      <c r="D437" t="n">
         <v>4</v>
       </c>
-      <c r="E437" s="2" t="inlineStr">
+      <c r="E437" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G437" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J437" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K437" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L437" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G437" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" t="b">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K437" t="b">
+        <v>1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" t="n">
         <v>40</v>
       </c>
-      <c r="B438" s="2" t="inlineStr">
+      <c r="B438" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" s="2" t="inlineStr">
+      <c r="C438" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" s="2" t="n">
+      <c r="D438" t="n">
         <v>5</v>
       </c>
-      <c r="E438" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G438" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K438" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L438" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G438" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K438" t="b">
+        <v>1</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" t="n">
         <v>40</v>
       </c>
-      <c r="B439" s="2" t="inlineStr">
+      <c r="B439" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" s="2" t="inlineStr">
+      <c r="C439" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" s="2" t="n">
+      <c r="D439" t="n">
         <v>6</v>
       </c>
-      <c r="E439" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G439" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J439" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K439" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L439" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G439" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" t="b">
+        <v>1</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K439" t="b">
+        <v>1</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" t="n">
         <v>40</v>
       </c>
-      <c r="B440" s="2" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" s="2" t="inlineStr">
+      <c r="C440" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" s="2" t="n">
+      <c r="D440" t="n">
         <v>7</v>
       </c>
-      <c r="E440" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G440" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J440" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K440" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L440" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G440" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" t="b">
+        <v>1</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K440" t="b">
+        <v>1</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" t="n">
         <v>40</v>
       </c>
-      <c r="B441" s="2" t="inlineStr">
+      <c r="B441" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" s="2" t="inlineStr">
+      <c r="C441" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" s="2" t="n">
+      <c r="D441" t="n">
         <v>8</v>
       </c>
-      <c r="E441" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G441" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J441" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K441" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L441" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G441" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" t="b">
+        <v>1</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K441" t="b">
+        <v>1</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" t="n">
         <v>40</v>
       </c>
-      <c r="B442" s="2" t="inlineStr">
+      <c r="B442" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" s="2" t="inlineStr">
+      <c r="C442" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" s="2" t="n">
+      <c r="D442" t="n">
         <v>9</v>
       </c>
-      <c r="E442" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G442" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J442" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K442" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L442" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G442" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K442" t="b">
+        <v>1</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" t="n">
         <v>40</v>
       </c>
-      <c r="B443" s="2" t="inlineStr">
+      <c r="B443" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" s="2" t="inlineStr">
+      <c r="C443" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" s="2" t="n">
+      <c r="D443" t="n">
         <v>10</v>
       </c>
-      <c r="E443" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G443" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J443" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K443" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L443" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G443" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" t="b">
+        <v>1</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K443" t="b">
+        <v>1</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" t="n">
         <v>40</v>
       </c>
-      <c r="B444" s="2" t="inlineStr">
+      <c r="B444" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" s="2" t="inlineStr">
+      <c r="C444" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" s="2" t="n">
+      <c r="D444" t="n">
         <v>11</v>
       </c>
-      <c r="E444" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G444" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J444" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K444" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L444" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G444" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K444" t="b">
+        <v>1</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" t="n">
         <v>40</v>
       </c>
-      <c r="B445" s="2" t="inlineStr">
+      <c r="B445" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" s="2" t="inlineStr">
+      <c r="C445" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" s="2" t="n">
+      <c r="D445" t="n">
         <v>12</v>
       </c>
-      <c r="E445" s="2" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G445" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J445" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K445" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L445" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G445" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K445" t="b">
+        <v>1</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
+      <c r="F458" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -25913,11 +25913,11 @@
         </is>
       </c>
       <c r="I490" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J490" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K490" s="2" t="b">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25965,11 +25965,11 @@
         </is>
       </c>
       <c r="I491" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J491" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26017,11 +26017,11 @@
         </is>
       </c>
       <c r="I492" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J492" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26069,11 +26069,11 @@
         </is>
       </c>
       <c r="I493" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J493" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G494" s="2" t="b">
@@ -26121,11 +26121,11 @@
         </is>
       </c>
       <c r="I494" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J494" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K494" s="2" t="b">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="L494" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26173,11 +26173,11 @@
         </is>
       </c>
       <c r="I495" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J495" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26225,11 +26225,11 @@
         </is>
       </c>
       <c r="I496" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J496" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/17/word_level_predictions_17.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="I18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="I19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K19" s="2" t="b">
@@ -1473,11 +1473,11 @@
         </is>
       </c>
       <c r="I20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K20" s="2" t="b">
@@ -1525,11 +1525,11 @@
         </is>
       </c>
       <c r="I21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K21" s="2" t="b">
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,57 +11001,57 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,81 +12693,81 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23122,470 +23122,470 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
+      <c r="A437" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B437" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C437" s="2" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E437" t="inlineStr">
+      <c r="E437" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G437" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" t="b">
-        <v>1</v>
-      </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K437" t="b">
-        <v>1</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F437" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J437" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L437" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
+      <c r="A438" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B438" t="inlineStr">
+      <c r="B438" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="C438" s="2" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" t="n">
+      <c r="D438" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G438" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K438" t="b">
-        <v>1</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E438" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K438" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L438" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
+      <c r="A439" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B439" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C439" s="2" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" t="n">
+      <c r="D439" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G439" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" t="b">
-        <v>1</v>
-      </c>
-      <c r="J439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K439" t="b">
-        <v>1</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E439" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G439" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J439" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K439" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L439" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
+      <c r="A440" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B440" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C440" s="2" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" t="n">
+      <c r="D440" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G440" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" t="b">
-        <v>1</v>
-      </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K440" t="b">
-        <v>1</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E440" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G440" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J440" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K440" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L440" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
+      <c r="A441" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B441" t="inlineStr">
+      <c r="B441" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C441" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" t="n">
+      <c r="D441" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G441" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" t="b">
-        <v>1</v>
-      </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K441" t="b">
-        <v>1</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E441" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G441" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J441" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K441" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L441" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
+      <c r="A442" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B442" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C442" s="2" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" t="n">
+      <c r="D442" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G442" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" t="b">
-        <v>1</v>
-      </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K442" t="b">
-        <v>1</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E442" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K442" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L442" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
+      <c r="A443" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B443" t="inlineStr">
+      <c r="B443" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C443" s="2" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G443" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" t="b">
-        <v>1</v>
-      </c>
-      <c r="J443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K443" t="b">
-        <v>1</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E443" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J443" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L443" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
+      <c r="A444" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B444" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C444" s="2" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" t="n">
+      <c r="D444" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G444" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" t="b">
-        <v>1</v>
-      </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K444" t="b">
-        <v>1</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L444" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
+      <c r="A445" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B445" t="inlineStr">
+      <c r="B445" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C445" s="2" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="E445" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G445" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" t="b">
-        <v>1</v>
-      </c>
-      <c r="J445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K445" t="b">
-        <v>1</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F445" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L445" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -25913,11 +25913,11 @@
         </is>
       </c>
       <c r="I490" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J490" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K490" s="2" t="b">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25965,11 +25965,11 @@
         </is>
       </c>
       <c r="I491" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J491" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26017,11 +26017,11 @@
         </is>
       </c>
       <c r="I492" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J492" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26069,11 +26069,11 @@
         </is>
       </c>
       <c r="I493" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J493" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G494" s="2" t="b">
@@ -26121,11 +26121,11 @@
         </is>
       </c>
       <c r="I494" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J494" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K494" s="2" t="b">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="L494" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26173,11 +26173,11 @@
         </is>
       </c>
       <c r="I495" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26225,11 +26225,11 @@
         </is>
       </c>
       <c r="I496" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J496" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
